--- a/in.xlsx
+++ b/in.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="355">
   <si>
     <t xml:space="preserve">StartDate</t>
   </si>
@@ -739,6 +739,12 @@
   </si>
   <si>
     <t xml:space="preserve">R_8rkQkPjxnRrfCVP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">80.251.227.178</t>
@@ -1287,10 +1293,10 @@
   </sheetPr>
   <dimension ref="A1:CB95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AK1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AK1" activeCellId="0" sqref="AK1"/>
-      <selection pane="bottomLeft" activeCell="BB1" activeCellId="0" sqref="BB1"/>
+      <selection pane="topLeft" activeCell="BE1" activeCellId="0" sqref="BE1"/>
+      <selection pane="bottomLeft" activeCell="BT8" activeCellId="0" sqref="BT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6637,7 +6643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
         <v>44590.3307407407</v>
       </c>
@@ -6852,8 +6858,12 @@
       <c r="BX24" s="4"/>
       <c r="BY24" s="4"/>
       <c r="BZ24" s="4"/>
-      <c r="CA24" s="4"/>
-      <c r="CB24" s="4"/>
+      <c r="CA24" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="CB24" s="4" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
@@ -6866,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>100</v>
@@ -6881,7 +6891,7 @@
         <v>44598.0993668171</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -7100,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>100</v>
@@ -7115,7 +7125,7 @@
         <v>44598.3971240162</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -7140,7 +7150,7 @@
         <v>177</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="U26" s="0" t="n">
         <v>3</v>
@@ -7334,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>100</v>
@@ -7349,7 +7359,7 @@
         <v>44598.4326112616</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -7568,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>100</v>
@@ -7583,7 +7593,7 @@
         <v>44598.527007662</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -7802,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>100</v>
@@ -7817,7 +7827,7 @@
         <v>44598.5610589468</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -8022,7 +8032,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>100</v>
@@ -8037,7 +8047,7 @@
         <v>44599.5462678357</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -8059,7 +8069,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="T30" s="4" t="s">
         <v>166</v>
@@ -8256,7 +8266,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>100</v>
@@ -8271,7 +8281,7 @@
         <v>44601.460224213</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -8293,7 +8303,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="T31" s="4" t="s">
         <v>169</v>
@@ -8476,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>100</v>
@@ -8491,7 +8501,7 @@
         <v>44601.5070229282</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -8513,7 +8523,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="T32" s="4" t="s">
         <v>166</v>
@@ -8710,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>100</v>
@@ -8725,7 +8735,7 @@
         <v>44601.5384691782</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -8944,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>100</v>
@@ -8959,7 +8969,7 @@
         <v>44602.1594478472</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -9178,7 +9188,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>100</v>
@@ -9193,7 +9203,7 @@
         <v>44602.5888158912</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -9215,7 +9225,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="T35" s="4" t="s">
         <v>166</v>
@@ -9398,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>100</v>
@@ -9413,7 +9423,7 @@
         <v>44603.0925489005</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -9632,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>100</v>
@@ -9647,7 +9657,7 @@
         <v>44607.1137060185</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -9852,7 +9862,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>100</v>
@@ -9867,7 +9877,7 @@
         <v>44613.3987770255</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -10086,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>100</v>
@@ -10101,7 +10111,7 @@
         <v>44613.4571436806</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -10320,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>100</v>
@@ -10335,7 +10345,7 @@
         <v>44613.457797662</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -10360,7 +10370,7 @@
         <v>202</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="U40" s="0" t="n">
         <v>1</v>
@@ -10554,7 +10564,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>100</v>
@@ -10569,7 +10579,7 @@
         <v>44613.4631573727</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -10591,7 +10601,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="T41" s="4" t="s">
         <v>166</v>
@@ -10788,7 +10798,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>100</v>
@@ -10803,7 +10813,7 @@
         <v>44613.4688145833</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -10825,7 +10835,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="T42" s="4" t="s">
         <v>172</v>
@@ -11022,7 +11032,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>100</v>
@@ -11037,7 +11047,7 @@
         <v>44613.4698402894</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -11062,7 +11072,7 @@
         <v>202</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="U43" s="0" t="n">
         <v>1</v>
@@ -11256,7 +11266,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>100</v>
@@ -11271,7 +11281,7 @@
         <v>44613.4724183449</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -11296,7 +11306,7 @@
         <v>202</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="U44" s="0" t="n">
         <v>1</v>
@@ -11490,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>100</v>
@@ -11505,7 +11515,7 @@
         <v>44613.4799374884</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -11724,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>100</v>
@@ -11739,7 +11749,7 @@
         <v>44613.6418455787</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -11761,10 +11771,10 @@
         <v>1</v>
       </c>
       <c r="S46" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="U46" s="0" t="n">
         <v>3</v>
@@ -11958,7 +11968,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>100</v>
@@ -11973,7 +11983,7 @@
         <v>44618.336531875</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -11998,7 +12008,7 @@
         <v>165</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="U47" s="0" t="n">
         <v>1</v>
@@ -12192,7 +12202,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>100</v>
@@ -12207,7 +12217,7 @@
         <v>44620.5618772222</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -12426,7 +12436,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>100</v>
@@ -12441,7 +12451,7 @@
         <v>44620.5943170139</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -12660,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>100</v>
@@ -12675,7 +12685,7 @@
         <v>44620.6069497685</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -12697,7 +12707,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="T50" s="4" t="s">
         <v>178</v>
@@ -12894,7 +12904,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>100</v>
@@ -12909,7 +12919,7 @@
         <v>44620.6211923727</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -13128,7 +13138,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>100</v>
@@ -13143,7 +13153,7 @@
         <v>44620.6358864352</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -13165,7 +13175,7 @@
         <v>1</v>
       </c>
       <c r="S52" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="T52" s="4" t="s">
         <v>166</v>
@@ -13362,7 +13372,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>100</v>
@@ -13377,7 +13387,7 @@
         <v>44620.6434489931</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -13399,7 +13409,7 @@
         <v>1</v>
       </c>
       <c r="S53" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="T53" s="4" t="s">
         <v>172</v>
@@ -13596,7 +13606,7 @@
         <v>0</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>100</v>
@@ -13611,7 +13621,7 @@
         <v>44620.6870106482</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -13633,7 +13643,7 @@
         <v>1</v>
       </c>
       <c r="S54" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="T54" s="4" t="s">
         <v>197</v>
@@ -13830,7 +13840,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>100</v>
@@ -13845,7 +13855,7 @@
         <v>44621.0509855671</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -14064,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>100</v>
@@ -14079,7 +14089,7 @@
         <v>44621.1867530903</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -14313,7 +14323,7 @@
         <v>44621.373777963</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -14532,7 +14542,7 @@
         <v>0</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>100</v>
@@ -14547,7 +14557,7 @@
         <v>44621.3750004745</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -14781,7 +14791,7 @@
         <v>44621.3768687384</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -15000,7 +15010,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>100</v>
@@ -15015,7 +15025,7 @@
         <v>44621.4278042014</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -15040,7 +15050,7 @@
         <v>165</v>
       </c>
       <c r="T60" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="U60" s="0" t="n">
         <v>3</v>
@@ -15249,7 +15259,7 @@
         <v>44621.4681870139</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -15468,7 +15478,7 @@
         <v>0</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>100</v>
@@ -15483,7 +15493,7 @@
         <v>44621.7373602199</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -15505,7 +15515,7 @@
         <v>1</v>
       </c>
       <c r="S62" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="T62" s="4" t="s">
         <v>166</v>
@@ -15702,7 +15712,7 @@
         <v>0</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>100</v>
@@ -15717,7 +15727,7 @@
         <v>44622.3672971065</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -15739,7 +15749,7 @@
         <v>1</v>
       </c>
       <c r="S63" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="T63" s="4" t="s">
         <v>162</v>
@@ -15936,7 +15946,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>100</v>
@@ -15951,7 +15961,7 @@
         <v>44622.430640463</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -15973,10 +15983,10 @@
         <v>1</v>
       </c>
       <c r="S64" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="T64" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="U64" s="0" t="n">
         <v>3</v>
@@ -16156,7 +16166,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>100</v>
@@ -16171,7 +16181,7 @@
         <v>44622.4630466088</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
@@ -16390,7 +16400,7 @@
         <v>0</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>100</v>
@@ -16405,7 +16415,7 @@
         <v>44622.4848106597</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
@@ -16427,7 +16437,7 @@
         <v>1</v>
       </c>
       <c r="S66" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="T66" s="4" t="s">
         <v>169</v>
@@ -16624,7 +16634,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>100</v>
@@ -16639,7 +16649,7 @@
         <v>44625.3434369676</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
@@ -16873,7 +16883,7 @@
         <v>44626.5745150579</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -16898,7 +16908,7 @@
         <v>202</v>
       </c>
       <c r="T68" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="U68" s="0" t="n">
         <v>1</v>
@@ -17092,7 +17102,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>100</v>
@@ -17107,7 +17117,7 @@
         <v>44628.4673075926</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
@@ -17132,7 +17142,7 @@
         <v>202</v>
       </c>
       <c r="T69" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="U69" s="0" t="n">
         <v>1</v>
@@ -17341,7 +17351,7 @@
         <v>44628.5924984259</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -17560,7 +17570,7 @@
         <v>0</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>100</v>
@@ -17575,7 +17585,7 @@
         <v>44628.5968595255</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
@@ -17794,7 +17804,7 @@
         <v>0</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>100</v>
@@ -17809,7 +17819,7 @@
         <v>44637.4048958333</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
@@ -18028,7 +18038,7 @@
         <v>0</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>100</v>
@@ -18043,7 +18053,7 @@
         <v>44637.4096008681</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -18262,7 +18272,7 @@
         <v>0</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>100</v>
@@ -18277,7 +18287,7 @@
         <v>44637.4134592361</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -18302,7 +18312,7 @@
         <v>177</v>
       </c>
       <c r="T74" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="U74" s="0" t="n">
         <v>1</v>
@@ -18511,7 +18521,7 @@
         <v>44637.4163142477</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -18730,7 +18740,7 @@
         <v>0</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>100</v>
@@ -18745,7 +18755,7 @@
         <v>44637.4229553704</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -18767,10 +18777,10 @@
         <v>1</v>
       </c>
       <c r="S76" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="T76" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="T76" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="U76" s="0" t="n">
         <v>1</v>
@@ -18979,7 +18989,7 @@
         <v>44637.5046509144</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -19001,7 +19011,7 @@
         <v>1</v>
       </c>
       <c r="S77" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="T77" s="4" t="s">
         <v>169</v>
@@ -19198,7 +19208,7 @@
         <v>0</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>100</v>
@@ -19213,7 +19223,7 @@
         <v>44646.4792187384</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -19235,7 +19245,7 @@
         <v>1</v>
       </c>
       <c r="S78" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="T78" s="4" t="s">
         <v>166</v>
@@ -19432,7 +19442,7 @@
         <v>0</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>100</v>
@@ -19447,7 +19457,7 @@
         <v>44647.3368704861</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -19666,7 +19676,7 @@
         <v>0</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>100</v>
@@ -19681,7 +19691,7 @@
         <v>44647.3411755903</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
@@ -19703,10 +19713,10 @@
         <v>1</v>
       </c>
       <c r="S80" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="T80" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="T80" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="U80" s="0" t="n">
         <v>1</v>
@@ -19900,7 +19910,7 @@
         <v>0</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>100</v>
@@ -19915,7 +19925,7 @@
         <v>44647.4426542245</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -19937,7 +19947,7 @@
         <v>1</v>
       </c>
       <c r="S81" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="T81" s="4" t="s">
         <v>197</v>
@@ -20134,7 +20144,7 @@
         <v>0</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>100</v>
@@ -20149,7 +20159,7 @@
         <v>44647.4522705671</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
@@ -20383,7 +20393,7 @@
         <v>44656.5374384144</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
@@ -20602,7 +20612,7 @@
         <v>0</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>100</v>
@@ -20617,7 +20627,7 @@
         <v>44657.3633373032</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
@@ -20836,7 +20846,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>100</v>
@@ -20851,7 +20861,7 @@
         <v>44659.2734664236</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
@@ -20873,7 +20883,7 @@
         <v>1</v>
       </c>
       <c r="S85" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="T85" s="4" t="s">
         <v>169</v>
@@ -21070,7 +21080,7 @@
         <v>0</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>100</v>
@@ -21085,7 +21095,7 @@
         <v>44661.3608291204</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
@@ -21290,7 +21300,7 @@
         <v>0</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>100</v>
@@ -21305,7 +21315,7 @@
         <v>44661.4261622222</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -21524,7 +21534,7 @@
         <v>0</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>100</v>
@@ -21539,7 +21549,7 @@
         <v>44661.5326603125</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -21564,7 +21574,7 @@
         <v>202</v>
       </c>
       <c r="T88" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="U88" s="0" t="n">
         <v>1</v>
@@ -21758,7 +21768,7 @@
         <v>0</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>100</v>
@@ -21773,7 +21783,7 @@
         <v>44663.5568640394</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -21798,7 +21808,7 @@
         <v>165</v>
       </c>
       <c r="T89" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="U89" s="0" t="n">
         <v>1</v>
@@ -22007,7 +22017,7 @@
         <v>44664.3158261343</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -22241,7 +22251,7 @@
         <v>44664.32074125</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
@@ -22263,7 +22273,7 @@
         <v>1</v>
       </c>
       <c r="S91" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="T91" s="4" t="s">
         <v>162</v>
@@ -22475,7 +22485,7 @@
         <v>44664.3258514815</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -22709,7 +22719,7 @@
         <v>44664.3346987037</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
@@ -22731,7 +22741,7 @@
         <v>1</v>
       </c>
       <c r="S93" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="T93" s="4" t="s">
         <v>169</v>
@@ -22943,7 +22953,7 @@
         <v>44664.3402905093</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
@@ -23177,7 +23187,7 @@
         <v>44664.3492037037</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
